--- a/jpcore-r4/feature/注射カテゴリ追加/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/feature/注射カテゴリ追加/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3893" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3893" uniqueCount="640">
   <si>
     <t>Property</t>
   </si>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
@@ -898,6 +898,9 @@
   </si>
   <si>
     <t>プロファイルを区別するためのカテゴリ。injection固定</t>
+  </si>
+  <si>
+    <t>プロファイルを区別するためのカテゴリ。medication固定</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -7333,7 +7336,7 @@
         <v>283</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>276</v>
@@ -7347,7 +7350,7 @@
         <v>81</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>81</v>
@@ -7421,7 +7424,7 @@
         <v>273</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>81</v>
@@ -7446,13 +7449,13 @@
         <v>189</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7481,10 +7484,10 @@
         <v>183</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>81</v>
@@ -7537,7 +7540,7 @@
         <v>273</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>81</v>
@@ -7562,7 +7565,7 @@
         <v>189</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>275</v>
@@ -7650,7 +7653,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7676,13 +7679,13 @@
         <v>108</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7711,10 +7714,10 @@
         <v>183</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>81</v>
@@ -7732,7 +7735,7 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7747,16 +7750,16 @@
         <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
@@ -7764,7 +7767,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7787,16 +7790,16 @@
         <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7846,7 +7849,7 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
@@ -7867,7 +7870,7 @@
         <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>81</v>
@@ -7878,7 +7881,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7901,13 +7904,13 @@
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7958,7 +7961,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7979,7 +7982,7 @@
         <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>81</v>
@@ -7990,7 +7993,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8013,16 +8016,16 @@
         <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8060,17 +8063,17 @@
         <v>81</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AB50" s="2"/>
       <c r="AC50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>88</v>
@@ -8085,27 +8088,27 @@
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>81</v>
@@ -8127,16 +8130,16 @@
         <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8186,7 +8189,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>88</v>
@@ -8201,24 +8204,24 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8241,16 +8244,16 @@
         <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8300,7 +8303,7 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>88</v>
@@ -8315,24 +8318,24 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8355,16 +8358,16 @@
         <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8414,7 +8417,7 @@
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
@@ -8429,24 +8432,24 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>253</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8469,16 +8472,16 @@
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8528,7 +8531,7 @@
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
@@ -8543,16 +8546,16 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8560,7 +8563,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8583,13 +8586,13 @@
         <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8640,7 +8643,7 @@
         <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
@@ -8655,24 +8658,24 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8695,16 +8698,16 @@
         <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8754,7 +8757,7 @@
         <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
@@ -8769,16 +8772,16 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
@@ -8786,7 +8789,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8809,16 +8812,16 @@
         <v>81</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8868,7 +8871,7 @@
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>79</v>
@@ -8883,16 +8886,16 @@
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
@@ -8900,7 +8903,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8926,13 +8929,13 @@
         <v>189</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8962,7 +8965,7 @@
       </c>
       <c r="X58" s="2"/>
       <c r="Y58" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>81</v>
@@ -8980,7 +8983,7 @@
         <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>79</v>
@@ -8995,13 +8998,13 @@
         <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>81</v>
@@ -9012,7 +9015,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9035,16 +9038,16 @@
         <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9094,7 +9097,7 @@
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>79</v>
@@ -9115,10 +9118,10 @@
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
@@ -9126,7 +9129,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9152,13 +9155,13 @@
         <v>189</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9187,10 +9190,10 @@
         <v>259</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>81</v>
@@ -9208,7 +9211,7 @@
         <v>81</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
@@ -9223,24 +9226,24 @@
         <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9263,16 +9266,16 @@
         <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9322,7 +9325,7 @@
         <v>81</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
@@ -9337,16 +9340,16 @@
         <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>253</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
@@ -9354,7 +9357,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9377,16 +9380,16 @@
         <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9436,7 +9439,7 @@
         <v>81</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
@@ -9451,13 +9454,13 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>81</v>
@@ -9468,7 +9471,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9494,13 +9497,13 @@
         <v>102</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9550,7 +9553,7 @@
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
@@ -9571,7 +9574,7 @@
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>81</v>
@@ -9582,7 +9585,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9605,16 +9608,16 @@
         <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9664,7 +9667,7 @@
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
@@ -9679,13 +9682,13 @@
         <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>81</v>
@@ -9696,7 +9699,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9722,14 +9725,14 @@
         <v>153</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>81</v>
@@ -9778,7 +9781,7 @@
         <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>79</v>
@@ -9793,13 +9796,13 @@
         <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>81</v>
@@ -9810,7 +9813,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9836,13 +9839,13 @@
         <v>189</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9871,10 +9874,10 @@
         <v>259</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>81</v>
@@ -9892,7 +9895,7 @@
         <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
@@ -9913,7 +9916,7 @@
         <v>81</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>81</v>
@@ -9924,7 +9927,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9947,16 +9950,16 @@
         <v>81</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -10006,7 +10009,7 @@
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>79</v>
@@ -10021,13 +10024,13 @@
         <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>81</v>
@@ -10038,7 +10041,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10061,16 +10064,16 @@
         <v>81</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10120,7 +10123,7 @@
         <v>81</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
@@ -10135,13 +10138,13 @@
         <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>81</v>
@@ -10152,7 +10155,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10175,16 +10178,16 @@
         <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10234,7 +10237,7 @@
         <v>81</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
@@ -10255,7 +10258,7 @@
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>81</v>
@@ -10266,7 +10269,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10289,13 +10292,13 @@
         <v>81</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10346,7 +10349,7 @@
         <v>81</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>79</v>
@@ -10364,10 +10367,10 @@
         <v>81</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>81</v>
@@ -10378,7 +10381,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10404,10 +10407,10 @@
         <v>168</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10490,7 +10493,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10600,10 +10603,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>81</v>
@@ -10625,13 +10628,13 @@
         <v>81</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10714,10 +10717,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>81</v>
@@ -10739,13 +10742,13 @@
         <v>81</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10828,11 +10831,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10854,10 +10857,10 @@
         <v>133</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>149</v>
@@ -10912,7 +10915,7 @@
         <v>81</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>79</v>
@@ -10944,7 +10947,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10967,16 +10970,16 @@
         <v>81</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -11026,7 +11029,7 @@
         <v>81</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>79</v>
@@ -11047,7 +11050,7 @@
         <v>81</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>81</v>
@@ -11058,7 +11061,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11170,7 +11173,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11284,11 +11287,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11310,10 +11313,10 @@
         <v>133</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>149</v>
@@ -11368,7 +11371,7 @@
         <v>81</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>79</v>
@@ -11400,7 +11403,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11423,16 +11426,16 @@
         <v>81</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11482,7 +11485,7 @@
         <v>81</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>79</v>
@@ -11494,7 +11497,7 @@
         <v>144</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>81</v>
@@ -11503,18 +11506,18 @@
         <v>81</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11537,16 +11540,16 @@
         <v>81</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11596,7 +11599,7 @@
         <v>81</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>79</v>
@@ -11617,7 +11620,7 @@
         <v>81</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>81</v>
@@ -11628,7 +11631,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11651,16 +11654,16 @@
         <v>81</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11710,7 +11713,7 @@
         <v>81</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>79</v>
@@ -11731,7 +11734,7 @@
         <v>81</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>81</v>
@@ -11742,7 +11745,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11768,16 +11771,16 @@
         <v>218</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>81</v>
@@ -11826,7 +11829,7 @@
         <v>81</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>79</v>
@@ -11844,10 +11847,10 @@
         <v>81</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>81</v>
@@ -11858,7 +11861,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11970,7 +11973,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12084,7 +12087,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12107,16 +12110,16 @@
         <v>89</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -12166,7 +12169,7 @@
         <v>81</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>79</v>
@@ -12175,7 +12178,7 @@
         <v>88</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>100</v>
@@ -12187,18 +12190,18 @@
         <v>81</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12221,23 +12224,23 @@
         <v>89</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P87" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Q87" t="s" s="2">
         <v>81</v>
@@ -12282,7 +12285,7 @@
         <v>81</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>79</v>
@@ -12291,7 +12294,7 @@
         <v>88</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>100</v>
@@ -12303,18 +12306,18 @@
         <v>81</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12337,16 +12340,16 @@
         <v>81</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12396,7 +12399,7 @@
         <v>81</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>79</v>
@@ -12414,21 +12417,21 @@
         <v>81</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12451,16 +12454,16 @@
         <v>81</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12510,7 +12513,7 @@
         <v>81</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>79</v>
@@ -12522,7 +12525,7 @@
         <v>144</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>81</v>
@@ -12531,18 +12534,18 @@
         <v>81</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12565,16 +12568,16 @@
         <v>81</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12624,7 +12627,7 @@
         <v>81</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>79</v>
@@ -12642,10 +12645,10 @@
         <v>81</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>81</v>
@@ -12656,7 +12659,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12768,7 +12771,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12882,7 +12885,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12905,19 +12908,19 @@
         <v>89</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>81</v>
@@ -12966,7 +12969,7 @@
         <v>81</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>79</v>
@@ -12987,18 +12990,18 @@
         <v>81</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13024,20 +13027,20 @@
         <v>108</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P94" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Q94" t="s" s="2">
         <v>81</v>
@@ -13061,10 +13064,10 @@
         <v>183</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>81</v>
@@ -13082,7 +13085,7 @@
         <v>81</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>79</v>
@@ -13103,18 +13106,18 @@
         <v>81</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13140,21 +13143,21 @@
         <v>168</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="R95" t="s" s="2">
         <v>81</v>
@@ -13196,7 +13199,7 @@
         <v>81</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>79</v>
@@ -13217,18 +13220,18 @@
         <v>81</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13254,21 +13257,21 @@
         <v>102</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="R96" t="s" s="2">
         <v>81</v>
@@ -13310,7 +13313,7 @@
         <v>81</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>79</v>
@@ -13319,7 +13322,7 @@
         <v>88</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>100</v>
@@ -13331,18 +13334,18 @@
         <v>81</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13368,23 +13371,23 @@
         <v>108</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="R97" t="s" s="2">
         <v>81</v>
@@ -13426,7 +13429,7 @@
         <v>81</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>79</v>
@@ -13447,18 +13450,18 @@
         <v>81</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13481,16 +13484,16 @@
         <v>81</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -13540,7 +13543,7 @@
         <v>81</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>79</v>
@@ -13561,10 +13564,10 @@
         <v>81</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>81</v>
@@ -13572,7 +13575,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13595,13 +13598,13 @@
         <v>81</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -13652,7 +13655,7 @@
         <v>81</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>79</v>
@@ -13670,10 +13673,10 @@
         <v>81</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>81</v>
@@ -13684,7 +13687,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13796,7 +13799,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13910,11 +13913,11 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -13936,10 +13939,10 @@
         <v>133</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M102" t="s" s="2">
         <v>149</v>
@@ -13994,7 +13997,7 @@
         <v>81</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>79</v>
@@ -14026,7 +14029,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14052,13 +14055,13 @@
         <v>189</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -14088,7 +14091,7 @@
       </c>
       <c r="X103" s="2"/>
       <c r="Y103" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>81</v>
@@ -14106,7 +14109,7 @@
         <v>81</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>88</v>
@@ -14124,21 +14127,21 @@
         <v>81</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14164,13 +14167,13 @@
         <v>189</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -14199,10 +14202,10 @@
         <v>259</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>81</v>
@@ -14220,7 +14223,7 @@
         <v>81</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>79</v>
@@ -14238,21 +14241,21 @@
         <v>81</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14275,16 +14278,16 @@
         <v>81</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -14334,7 +14337,7 @@
         <v>81</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>79</v>
@@ -14349,13 +14352,13 @@
         <v>100</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>81</v>
@@ -14366,11 +14369,11 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -14389,16 +14392,16 @@
         <v>81</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14448,7 +14451,7 @@
         <v>81</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>79</v>
@@ -14469,7 +14472,7 @@
         <v>81</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>81</v>
@@ -14480,7 +14483,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14503,16 +14506,16 @@
         <v>81</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
@@ -14562,7 +14565,7 @@
         <v>81</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>79</v>
@@ -14577,13 +14580,13 @@
         <v>100</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>81</v>
